--- a/output/StructureDefinition-cbs-condition.xlsx
+++ b/output/StructureDefinition-cbs-condition.xlsx
@@ -546,7 +546,7 @@
     <t>0..1 to account for primarily narrative only resources.</t>
   </si>
   <si>
-    <t>http://phinvads.cdc.gov/vads/ViewValueSet.action?oid=2.16.840.1.114222.4.11.1015</t>
+    <t>http://phinvads.cdc.gov/fhir/ValueSet/2.16.840.1.114222.4.11.1015</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -588,7 +588,7 @@
     <t>Only used if not implicit in code found in Condition.code. If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).  May be a summary code, or a reference to a very precise definition of the location, or both.</t>
   </si>
   <si>
-    <t>http://phinvads.cdc.gov/vads/ViewValueSet.action?oid=2.16.840.1.114222.4.11.7195</t>
+    <t>http://phinvads.cdc.gov/fhir/ValueSet/2.16.840.1.114222.4.11.7195</t>
   </si>
   <si>
     <t>&lt; 442083009  |Anatomical or acquired body structure|</t>
@@ -1168,7 +1168,7 @@
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="83.07421875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="78.65625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="63.4453125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
